--- a/Lab2/Constant/2.4.xlsx
+++ b/Lab2/Constant/2.4.xlsx
@@ -1,31 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="2.4" sheetId="1" r:id="rId4"/>
+    <sheet name="2.4" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
-  <si>
-    <t>№ группы</t>
-  </si>
-  <si>
-    <t>Наименование группы</t>
-  </si>
-  <si>
-    <t>№ уязвимости</t>
-  </si>
-  <si>
-    <t>Наименование уязвимости</t>
-  </si>
-  <si>
-    <t>Обработка
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+  <si>
+    <t xml:space="preserve">№ группы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Наименование группы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">№ уязвимости</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Наименование уязвимости</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Обработка
 информации,
 представленной в электронной форме</t>
   </si>
@@ -33,22 +41,25 @@
     <t>3.1.1</t>
   </si>
   <si>
-    <t>Выход линий электропитания / заземления за пределы контролируемой зоны</t>
+    <t xml:space="preserve">Выход линий электропитания / заземления за пределы контролируемой зоны</t>
   </si>
   <si>
     <t>3.1.2</t>
   </si>
   <si>
-    <t>Распространение ПЭМИН за пределы контролируемой зоны</t>
+    <t xml:space="preserve">Распространение ПЭМИН за пределы контролируемой зоны</t>
   </si>
   <si>
     <t>3.1.3</t>
   </si>
   <si>
-    <t>Использование съёмных носителей защищаемой информации</t>
-  </si>
-  <si>
-    <t>Обработка
+    <t xml:space="preserve">Использование съёмных носителей защищаемой информации</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Обработка
 информации,
 представленной в неэлектронной форме</t>
   </si>
@@ -56,87 +67,99 @@
     <t>3.2.1</t>
   </si>
   <si>
-    <t>Представление защищаемой информации в акустической форме вне пределов выделенных помещений</t>
+    <t xml:space="preserve">Представление защищаемой информации в акустической форме вне пределов выделенных помещений</t>
   </si>
   <si>
     <t>3.2.2</t>
   </si>
   <si>
-    <t>Открытое использование видовой конфиденциальной информации</t>
+    <t xml:space="preserve">Открытое использование видовой конфиденциальной информации</t>
   </si>
   <si>
     <t>3.2.3</t>
   </si>
   <si>
-    <t>Негарантированное уничтожение «мусора»</t>
-  </si>
-  <si>
-    <t>Линии связи и передача данных</t>
+    <t xml:space="preserve">Негарантированное уничтожение «мусора»</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Линии связи и передача данных</t>
   </si>
   <si>
     <t>3.3.1</t>
   </si>
   <si>
-    <t>Выход проводных линий связи за пределы контролируемой зоны</t>
+    <t xml:space="preserve">Выход проводных линий связи за пределы контролируемой зоны</t>
   </si>
   <si>
     <t>3.3.2</t>
   </si>
   <si>
-    <t>Использование безпроводной связи для передачи защищаемой информации</t>
-  </si>
-  <si>
-    <t>Система
+    <t xml:space="preserve">Использование безпроводной связи для передачи защищаемой информации</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Система
 электропитания</t>
   </si>
   <si>
     <t>3.4.1</t>
   </si>
   <si>
-    <t>Отсутствие / недостаточное количество ИБП</t>
+    <t xml:space="preserve">Отсутствие / недостаточное количество ИБП</t>
   </si>
   <si>
     <t>3.4.2</t>
   </si>
   <si>
-    <t>Низкое качество электроснабжения</t>
-  </si>
-  <si>
-    <t>Система
+    <t xml:space="preserve">Низкое качество электроснабжения</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Система
 видеонаблюдения</t>
   </si>
   <si>
     <t>3.5.1</t>
   </si>
   <si>
-    <t>Отсутствие системы видеонаблюдения</t>
+    <t xml:space="preserve">Отсутствие системы видеонаблюдения</t>
   </si>
   <si>
     <t>3.5.2</t>
   </si>
   <si>
-    <t>Неполное покрытие контролируемой зоны средствами видеонаблюдения</t>
+    <t xml:space="preserve">Неполное покрытие контролируемой зоны средствами видеонаблюдения</t>
   </si>
   <si>
     <t>3.5.3</t>
   </si>
   <si>
-    <t>Неправильная установка видеокамер</t>
+    <t xml:space="preserve">Неправильная установка видеокамер</t>
   </si>
   <si>
     <t>3.5.4</t>
   </si>
   <si>
-    <t>Низкое качество средств видеонаблюдения</t>
+    <t xml:space="preserve">Низкое качество средств видеонаблюдения</t>
   </si>
   <si>
     <t>3.5.5</t>
   </si>
   <si>
-    <t>Недостатки в подсистеме видеорегистрации</t>
-  </si>
-  <si>
-    <t>Система
+    <t xml:space="preserve">Недостатки в подсистеме видеорегистрации</t>
+  </si>
+  <si>
+    <t>3.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Система
 охранной и
 пожарной
 сигнализации</t>
@@ -145,56 +168,53 @@
     <t>3.6.1</t>
   </si>
   <si>
-    <t>Отсутствие охранной сигнализации</t>
+    <t xml:space="preserve">Отсутствие охранной сигнализации</t>
   </si>
   <si>
     <t>3.6.2</t>
   </si>
   <si>
-    <t>Неправильная установка средств охранной сигнализации</t>
+    <t xml:space="preserve">Неправильная установка средств охранной сигнализации</t>
   </si>
   <si>
     <t>3.6.3</t>
   </si>
   <si>
-    <t>Неправильная настройка системы охранной сигнализации</t>
+    <t xml:space="preserve">Неправильная настройка системы охранной сигнализации</t>
   </si>
   <si>
     <t>3.6.4</t>
   </si>
   <si>
-    <t>Повышенный процент ложных срабатываний охранной сигнализации</t>
+    <t xml:space="preserve">Повышенный процент ложных срабатываний охранной сигнализации</t>
   </si>
   <si>
     <t>3.6.5</t>
   </si>
   <si>
-    <t>Отсутствие пожарной сигнализации</t>
+    <t xml:space="preserve">Отсутствие пожарной сигнализации</t>
   </si>
   <si>
     <t>3.6.6</t>
   </si>
   <si>
-    <t>Неправильная установка средств / настройка системы пожарной сигнализации</t>
+    <t xml:space="preserve">Неправильная установка средств / настройка системы пожарной сигнализации</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="d.m"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3">
     <font>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
+      <sz val="10.000000"/>
+      <color indexed="64"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="13.0"/>
-      <color rgb="FF000000"/>
+      <sz val="13.000000"/>
+      <color indexed="64"/>
       <name val="&quot;Times New Roman&quot;"/>
     </font>
     <font/>
@@ -204,94 +224,393 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="5">
-    <border/>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="none"/>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
+      <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="10">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf fontId="1" fillId="0" borderId="2" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf fontId="1" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    <xf fontId="1" fillId="0" borderId="1" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf fontId="2" fillId="0" borderId="3" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf fontId="2" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="2" fillId="0" borderId="4" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf fontId="2" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -348,7 +667,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -374,7 +693,7 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -426,16 +745,28 @@
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -451,7 +782,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -481,288 +812,295 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <outlinePr applyStyles="0" summaryBelow="0" summaryRight="0" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.43" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="11.86"/>
+    <col customWidth="1" min="1" max="1" width="11.859999999999999"/>
     <col customWidth="1" min="2" max="2" width="19.43"/>
-    <col customWidth="1" min="3" max="3" width="16.29"/>
-    <col customWidth="1" min="4" max="4" width="110.0"/>
+    <col customWidth="1" min="3" max="3" width="16.289999999999999"/>
+    <col customWidth="1" min="4" max="4" width="110"/>
   </cols>
   <sheetData>
-    <row r="2">
-      <c r="A2" s="1" t="s">
+    <row r="1" ht="15.75">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2">
-        <v>45294.0</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    <row r="2" ht="15.75">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
       <c r="C3" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="C5" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2">
-        <v>45325.0</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>11</v>
-      </c>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
       <c r="C6" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75">
+      <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="C8" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2">
-        <v>45354.0</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>18</v>
-      </c>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75">
+      <c r="A10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="C10" s="4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2">
-        <v>45385.0</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>23</v>
-      </c>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75">
+      <c r="A12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="C12" s="4" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2">
-        <v>45415.0</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>28</v>
-      </c>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
       <c r="C13" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75">
       <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
+      <c r="B14" s="7"/>
       <c r="C14" s="4" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75">
       <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
+      <c r="B15" s="7"/>
       <c r="C15" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9"/>
       <c r="C16" s="4" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75">
+      <c r="A17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="C17" s="4" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2">
-        <v>45446.0</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>39</v>
-      </c>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
       <c r="C18" s="4" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75">
       <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
+      <c r="B19" s="7"/>
       <c r="C19" s="4" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" ht="15.75">
       <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
+      <c r="B20" s="7"/>
       <c r="C20" s="4" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75">
       <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
+      <c r="B21" s="7"/>
       <c r="C21" s="4" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75">
+      <c r="A22" s="8"/>
+      <c r="B22" s="9"/>
       <c r="C22" s="4" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="A18:A23"/>
-    <mergeCell ref="B18:B23"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="B17:B22"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>